--- a/data/raw/interaction_matrices/willem_2012/0_20_60/leisure.xlsx
+++ b/data/raw/interaction_matrices/willem_2012/0_20_60/leisure.xlsx
@@ -56,12 +56,11 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -77,6 +76,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,12 +126,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -147,72 +156,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>1.06579091651599</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>1.216053719477</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.3285831165268</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.442180497081279</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>3.23110413238288</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.594291141728326</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.289794424489987</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>1.44144214174383</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.409754575493867</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -230,72 +236,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.611009555873317</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.742887520231966</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.249737817140432</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.270128175844835</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>1.49118144734439</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.294162678838853</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.220256681951868</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.713486121589231</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.194957182396872</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -313,72 +316,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.0641492009426891</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.146035661615785</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.0179259175019281</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.0531013724234429</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.529229249894274</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.0752129282945782</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.0158097926662722</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.182427562578954</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.0383141872459739</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -396,72 +396,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.143731021268987</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.296346763188967</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.0425055940726421</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.107757376961671</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>1.02297657195606</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.216880699625741</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.0374878791767794</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.526040114382759</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.136084380262688</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -479,72 +476,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.652937884523564</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.669885385037643</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.178665199645414</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.243583196859776</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>1.56525117986051</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.197500117887216</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.157574069096787</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.479032872834153</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.146646263850739</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -562,72 +556,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.202491854699689</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.152409345642778</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.0524531408687946</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.0554189663965997</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.325892014554668</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.033737552356408</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.0462611345690513</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.0818298074987065</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.0324048683809231</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
